--- a/biology/Médecine/Fosse_poplitée/Fosse_poplitée.xlsx
+++ b/biology/Médecine/Fosse_poplitée/Fosse_poplitée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fosse_poplit%C3%A9e</t>
+          <t>Fosse_poplitée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse poplitée (ou creux poplité dans l'ancienne nomenclature) est une région anatomique située à l'arrière du genou, de forme losangique, communément appelée jarret. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fosse_poplit%C3%A9e</t>
+          <t>Fosse_poplitée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Limites et rapports</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse poplitée est limitée en haut : médialement par les muscles semi-membraneux et semi-tendineux et latéralement par le muscle biceps fémoral.
 Elle est limitée en bas : médialement par le chef médial du muscle gastrocnémien et latéralement par le chef latéral du muscle gastrocnémien et le muscle plantaire.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fosse_poplit%C3%A9e</t>
+          <t>Fosse_poplitée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,14 +561,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vaisseaux sanguins
-Les vaisseaux sanguins qui traversent la fosse poplitée sont:
+          <t>Vaisseaux sanguins</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les vaisseaux sanguins qui traversent la fosse poplitée sont:
 l'artère poplitée, issue de l'artère fémorale; son pouls peut être perçu au fond de la fosse poplitée (en portant ses doigts en crochets de part et d'autre du genou).
-la veine poplitée, qui reçoit la veine petite saphène.
-Nerfs
-Le nerf sciatique se divise en deux branches au sommet de la fosse poplitée :
-le nerf fibulaire,
-le nerf tibial.</t>
+la veine poplitée, qui reçoit la veine petite saphène.</t>
         </is>
       </c>
     </row>
@@ -564,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fosse_poplit%C3%A9e</t>
+          <t>Fosse_poplitée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,14 +594,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pathologies</t>
+          <t>Contenu</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Anévrisme poplité pouvant être à l'origine d'une ischémie aiguë du membre inférieur.
-Kyste poplité : kyste synovial
-Syndrome de l'artère poplitée piégée (en) : de sévérité variable.</t>
+          <t>Nerfs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nerf sciatique se divise en deux branches au sommet de la fosse poplitée :
+le nerf fibulaire,
+le nerf tibial.</t>
         </is>
       </c>
     </row>
@@ -596,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fosse_poplit%C3%A9e</t>
+          <t>Fosse_poplitée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,10 +632,46 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Pathologies</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Anévrisme poplité pouvant être à l'origine d'une ischémie aiguë du membre inférieur.
+Kyste poplité : kyste synovial
+Syndrome de l'artère poplitée piégée (en) : de sévérité variable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fosse_poplitée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_poplit%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse poplitée est notamment célèbre en tant que la cible du Coup de Jarnac, qui permit à Guy Chabot de Jarnac de triompher de François de Vivonne, seigneur de La Châtaigneraie.
 </t>
